--- a/Document/Design/Detail Design/Usecase_Table.xlsx
+++ b/Document/Design/Detail Design/Usecase_Table.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="123">
   <si>
     <t>Number</t>
   </si>
@@ -382,13 +382,16 @@
   </si>
   <si>
     <t>Print Report Use Case</t>
+  </si>
+  <si>
+    <t>Delete Requirement Use Case</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -440,6 +443,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -518,6 +526,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -552,6 +561,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -727,20 +737,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="C61" sqref="C61"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="30.42578125" customWidth="1"/>
     <col min="3" max="3" width="43.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -751,7 +761,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75">
+    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -762,7 +772,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.75">
+    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -773,7 +783,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.75">
+    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -784,7 +794,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.75">
+    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -795,7 +805,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15.75">
+    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -806,7 +816,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.75">
+    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -817,7 +827,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15.75">
+    <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -828,7 +838,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15.75">
+    <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -839,7 +849,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15.75">
+    <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -850,7 +860,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15.75">
+    <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -861,7 +871,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15.75">
+    <row r="12" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -872,7 +882,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15.75">
+    <row r="13" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -883,7 +893,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15.75">
+    <row r="14" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -894,7 +904,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15.75">
+    <row r="15" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -905,7 +915,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15.75">
+    <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -916,7 +926,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15.75">
+    <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -927,7 +937,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15.75">
+    <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -938,7 +948,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15.75">
+    <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -949,7 +959,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15.75">
+    <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -960,7 +970,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15.75">
+    <row r="21" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -971,7 +981,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15.75">
+    <row r="22" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -982,7 +992,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15.75">
+    <row r="23" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>22</v>
       </c>
@@ -993,7 +1003,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="15.75">
+    <row r="24" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>23</v>
       </c>
@@ -1004,7 +1014,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="15.75">
+    <row r="25" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>24</v>
       </c>
@@ -1015,7 +1025,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="15.75">
+    <row r="26" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>25</v>
       </c>
@@ -1026,7 +1036,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="15.75">
+    <row r="27" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>26</v>
       </c>
@@ -1037,7 +1047,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="15.75">
+    <row r="28" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>27</v>
       </c>
@@ -1048,7 +1058,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="15.75">
+    <row r="29" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>28</v>
       </c>
@@ -1059,7 +1069,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="15.75">
+    <row r="30" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>29</v>
       </c>
@@ -1070,7 +1080,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="15.75">
+    <row r="31" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>30</v>
       </c>
@@ -1081,7 +1091,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="15.75">
+    <row r="32" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>31</v>
       </c>
@@ -1092,7 +1102,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="15.75">
+    <row r="33" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>32</v>
       </c>
@@ -1103,7 +1113,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="15.75">
+    <row r="34" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>33</v>
       </c>
@@ -1114,7 +1124,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="15.75">
+    <row r="35" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>34</v>
       </c>
@@ -1125,7 +1135,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="15.75">
+    <row r="36" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>35</v>
       </c>
@@ -1136,7 +1146,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="15.75">
+    <row r="37" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>36</v>
       </c>
@@ -1147,7 +1157,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="15.75">
+    <row r="38" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>37</v>
       </c>
@@ -1158,7 +1168,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="15.75">
+    <row r="39" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>38</v>
       </c>
@@ -1169,7 +1179,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="15.75">
+    <row r="40" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>39</v>
       </c>
@@ -1180,7 +1190,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="15.75">
+    <row r="41" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>40</v>
       </c>
@@ -1191,7 +1201,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="15.75">
+    <row r="42" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>41</v>
       </c>
@@ -1202,7 +1212,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="15.75">
+    <row r="43" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <v>42</v>
       </c>
@@ -1213,7 +1223,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="15.75">
+    <row r="44" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>43</v>
       </c>
@@ -1221,10 +1231,10 @@
         <v>83</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="15.75">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>44</v>
       </c>
@@ -1235,7 +1245,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="15.75">
+    <row r="46" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <v>45</v>
       </c>
@@ -1246,7 +1256,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="15.75">
+    <row r="47" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
         <v>46</v>
       </c>
@@ -1257,7 +1267,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="15.75">
+    <row r="48" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <v>47</v>
       </c>
@@ -1268,7 +1278,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="15.75">
+    <row r="49" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <v>48</v>
       </c>
@@ -1279,7 +1289,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="15.75">
+    <row r="50" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
         <v>49</v>
       </c>
@@ -1290,7 +1300,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="15.75">
+    <row r="51" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
         <v>50</v>
       </c>
@@ -1301,7 +1311,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="15.75">
+    <row r="52" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <v>51</v>
       </c>
@@ -1312,7 +1322,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="15.75">
+    <row r="53" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
         <v>52</v>
       </c>
@@ -1323,7 +1333,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="15.75">
+    <row r="54" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
         <v>53</v>
       </c>
@@ -1334,7 +1344,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="15.75">
+    <row r="55" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <v>54</v>
       </c>
@@ -1345,7 +1355,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="15.75">
+    <row r="56" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
         <v>55</v>
       </c>
@@ -1356,7 +1366,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="15.75">
+    <row r="57" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
         <v>56</v>
       </c>
@@ -1367,7 +1377,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="15.75">
+    <row r="58" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
         <v>57</v>
       </c>
@@ -1378,7 +1388,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="15.75">
+    <row r="59" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
         <v>58</v>
       </c>
@@ -1389,7 +1399,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="15.75">
+    <row r="60" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
         <v>59</v>
       </c>
@@ -1400,7 +1410,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="15.75">
+    <row r="61" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
         <v>60</v>
       </c>
@@ -1418,24 +1428,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
